--- a/MS11/wifi_feedback.xlsx
+++ b/MS11/wifi_feedback.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8385" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8820" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2098,7 +2098,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
@@ -2128,7 +2128,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C33" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" showAll="0">
@@ -2361,7 +2361,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:W84" firstHeaderRow="1" firstDataRow="4" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" showAll="0">
@@ -3577,7 +3577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:W84"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E25" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -6143,8 +6143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" activeCellId="1" sqref="A1:A1048576 C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MS11/wifi_feedback.xlsx
+++ b/MS11/wifi_feedback.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8820" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8820" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="116">
   <si>
     <t>Athira T John</t>
   </si>
@@ -375,6 +376,9 @@
   </si>
   <si>
     <t>(blank) Count of 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> b</t>
   </si>
 </sst>
 </file>
@@ -2838,6 +2842,34 @@
 </table>
 </file>
 
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:P78" totalsRowShown="0">
+  <autoFilter ref="A1:P78"/>
+  <sortState ref="A2:P78">
+    <sortCondition descending="1" ref="O1:O78"/>
+  </sortState>
+  <tableColumns count="16">
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="1"/>
+    <tableColumn id="3" name="2"/>
+    <tableColumn id="4" name="3"/>
+    <tableColumn id="5" name="4"/>
+    <tableColumn id="6" name="5"/>
+    <tableColumn id="7" name="6"/>
+    <tableColumn id="8" name="7"/>
+    <tableColumn id="9" name="8"/>
+    <tableColumn id="10" name="9"/>
+    <tableColumn id="16" name="102"/>
+    <tableColumn id="11" name="10 (A)"/>
+    <tableColumn id="12" name="10 (B)"/>
+    <tableColumn id="13" name="10 (C )"/>
+    <tableColumn id="14" name="11"/>
+    <tableColumn id="15" name="Column4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6143,8 +6175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P45" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6208,226 +6240,1405 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2">
+        <v>5</v>
+      </c>
+      <c r="P2">
+        <v>116</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O3">
+        <v>7</v>
+      </c>
+      <c r="P3">
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <v>222</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>120</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>218</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7">
+        <v>7</v>
+      </c>
+      <c r="P7">
+        <v>119</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8">
+        <v>7</v>
+      </c>
+      <c r="P8">
+        <v>434</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" t="s">
+        <v>78</v>
+      </c>
+      <c r="O10">
+        <v>7</v>
+      </c>
+      <c r="P10">
+        <v>121</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11">
+        <v>367</v>
+      </c>
+      <c r="M11">
+        <v>0.06</v>
+      </c>
+      <c r="N11">
+        <v>0.48</v>
+      </c>
+      <c r="O11">
+        <v>7</v>
+      </c>
+      <c r="P11">
+        <v>318</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O12">
+        <v>7</v>
+      </c>
+      <c r="P12">
+        <v>402</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s">
+        <v>94</v>
+      </c>
+      <c r="J13" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" t="s">
+        <v>78</v>
+      </c>
+      <c r="O13">
+        <v>7</v>
+      </c>
+      <c r="P13">
+        <v>509</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="O14">
+        <v>7</v>
+      </c>
+      <c r="P14">
+        <v>405</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" t="s">
+        <v>78</v>
+      </c>
+      <c r="O15">
+        <v>7</v>
+      </c>
+      <c r="P15">
+        <v>403</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16">
+        <v>245</v>
+      </c>
+      <c r="M16">
+        <v>0.05</v>
+      </c>
+      <c r="N16">
+        <v>0.59</v>
+      </c>
+      <c r="O16">
+        <v>7</v>
+      </c>
+      <c r="P16">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="O17">
+        <v>7</v>
+      </c>
+      <c r="P17">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" t="s">
+        <v>78</v>
+      </c>
+      <c r="O18">
+        <v>7</v>
+      </c>
+      <c r="P18">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19" t="s">
+        <v>77</v>
+      </c>
+      <c r="K19" t="s">
+        <v>78</v>
+      </c>
+      <c r="O19">
+        <v>7</v>
+      </c>
+      <c r="P19">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21" t="s">
+        <v>77</v>
+      </c>
+      <c r="K21" t="s">
+        <v>78</v>
+      </c>
+      <c r="O21">
+        <v>7</v>
+      </c>
+      <c r="P21">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+      <c r="O22">
+        <v>7</v>
+      </c>
+      <c r="P22">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" t="s">
+        <v>77</v>
+      </c>
+      <c r="I32" t="s">
+        <v>78</v>
+      </c>
+      <c r="J32" t="s">
+        <v>94</v>
+      </c>
+      <c r="K32" t="s">
+        <v>78</v>
+      </c>
+      <c r="O32">
+        <v>7</v>
+      </c>
+      <c r="P32">
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
+      <c r="B33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33" t="s">
+        <v>77</v>
+      </c>
+      <c r="I33" t="s">
+        <v>81</v>
+      </c>
+      <c r="J33" t="s">
+        <v>77</v>
+      </c>
+      <c r="K33" t="s">
+        <v>78</v>
+      </c>
+      <c r="O33">
+        <v>5</v>
+      </c>
+      <c r="P33">
+        <v>228</v>
+      </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" t="s">
+        <v>78</v>
+      </c>
+      <c r="H34" t="s">
+        <v>77</v>
+      </c>
+      <c r="I34" t="s">
+        <v>81</v>
+      </c>
+      <c r="J34" t="s">
+        <v>78</v>
+      </c>
+      <c r="K34" t="s">
+        <v>78</v>
+      </c>
+      <c r="O34">
+        <v>7</v>
+      </c>
+      <c r="P34">
+        <v>433</v>
+      </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" t="s">
+        <v>77</v>
+      </c>
+      <c r="H35" t="s">
+        <v>77</v>
+      </c>
+      <c r="I35" t="s">
+        <v>81</v>
+      </c>
+      <c r="J35" t="s">
+        <v>77</v>
+      </c>
+      <c r="K35" t="s">
+        <v>78</v>
+      </c>
+      <c r="O35">
+        <v>5</v>
+      </c>
+      <c r="P35">
+        <v>224</v>
+      </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" t="s">
+        <v>77</v>
+      </c>
+      <c r="H36" t="s">
+        <v>78</v>
+      </c>
+      <c r="I36" t="s">
+        <v>78</v>
+      </c>
+      <c r="J36" t="s">
+        <v>77</v>
+      </c>
+      <c r="K36" t="s">
+        <v>78</v>
+      </c>
+      <c r="O36">
+        <v>7</v>
+      </c>
+      <c r="P36">
+        <v>805</v>
+      </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" t="s">
+        <v>77</v>
+      </c>
+      <c r="G37" t="s">
+        <v>77</v>
+      </c>
+      <c r="H37" t="s">
+        <v>78</v>
+      </c>
+      <c r="I37" t="s">
+        <v>78</v>
+      </c>
+      <c r="J37" t="s">
+        <v>77</v>
+      </c>
+      <c r="K37" t="s">
+        <v>78</v>
+      </c>
+      <c r="O37">
+        <v>7</v>
+      </c>
+      <c r="P37">
+        <v>408</v>
+      </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G38" t="s">
+        <v>77</v>
+      </c>
+      <c r="H38" t="s">
+        <v>77</v>
+      </c>
+      <c r="I38" t="s">
+        <v>81</v>
+      </c>
+      <c r="J38" t="s">
+        <v>77</v>
+      </c>
+      <c r="K38" t="s">
+        <v>78</v>
+      </c>
+      <c r="O38">
+        <v>5</v>
+      </c>
+      <c r="P38">
+        <v>223</v>
+      </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" t="s">
+        <v>77</v>
+      </c>
+      <c r="F39" t="s">
+        <v>77</v>
+      </c>
+      <c r="G39" t="s">
+        <v>77</v>
+      </c>
+      <c r="H39" t="s">
+        <v>78</v>
+      </c>
+      <c r="I39" t="s">
+        <v>78</v>
+      </c>
+      <c r="J39" t="s">
+        <v>78</v>
+      </c>
+      <c r="K39" t="s">
+        <v>78</v>
+      </c>
+      <c r="O39">
+        <v>7</v>
+      </c>
+      <c r="P39">
+        <v>310</v>
+      </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40" t="s">
+        <v>77</v>
+      </c>
+      <c r="H40" t="s">
+        <v>78</v>
+      </c>
+      <c r="I40" t="s">
+        <v>78</v>
+      </c>
+      <c r="J40" t="s">
+        <v>78</v>
+      </c>
+      <c r="K40" t="s">
+        <v>77</v>
+      </c>
+      <c r="M40">
+        <v>0.01</v>
+      </c>
+      <c r="N40">
+        <v>0.02</v>
+      </c>
+      <c r="O40">
+        <v>7</v>
+      </c>
+      <c r="P40">
+        <v>517</v>
+      </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" t="s">
+        <v>77</v>
+      </c>
+      <c r="G41" t="s">
+        <v>77</v>
+      </c>
+      <c r="H41" t="s">
+        <v>78</v>
+      </c>
+      <c r="I41" t="s">
+        <v>78</v>
+      </c>
+      <c r="J41" t="s">
+        <v>77</v>
+      </c>
+      <c r="K41" t="s">
+        <v>77</v>
+      </c>
+      <c r="M41">
+        <v>0.02</v>
+      </c>
+      <c r="N41">
+        <v>0.01</v>
+      </c>
+      <c r="O41">
+        <v>7</v>
+      </c>
+      <c r="P41">
+        <v>708</v>
+      </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" t="s">
+        <v>77</v>
+      </c>
+      <c r="G42" t="s">
+        <v>77</v>
+      </c>
+      <c r="H42" t="s">
+        <v>78</v>
+      </c>
+      <c r="I42" t="s">
+        <v>78</v>
+      </c>
+      <c r="J42" t="s">
+        <v>77</v>
+      </c>
+      <c r="K42" t="s">
+        <v>78</v>
+      </c>
+      <c r="O42">
+        <v>7</v>
+      </c>
+      <c r="P42">
+        <v>705</v>
+      </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
+      <c r="B43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43" t="s">
+        <v>77</v>
+      </c>
+      <c r="G43" t="s">
+        <v>77</v>
+      </c>
+      <c r="H43" t="s">
+        <v>78</v>
+      </c>
+      <c r="I43" t="s">
+        <v>78</v>
+      </c>
+      <c r="J43" t="s">
+        <v>78</v>
+      </c>
+      <c r="K43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O43">
+        <v>7</v>
+      </c>
+      <c r="P43">
+        <v>608</v>
+      </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" t="s">
+        <v>77</v>
+      </c>
+      <c r="F44" t="s">
+        <v>77</v>
+      </c>
+      <c r="G44" t="s">
+        <v>77</v>
+      </c>
+      <c r="H44" t="s">
+        <v>78</v>
+      </c>
+      <c r="I44" t="s">
+        <v>81</v>
+      </c>
+      <c r="J44" t="s">
+        <v>78</v>
+      </c>
+      <c r="K44" t="s">
+        <v>78</v>
+      </c>
+      <c r="O44">
+        <v>7</v>
+      </c>
+      <c r="P44">
+        <v>613</v>
+      </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45" t="s">
+        <v>81</v>
+      </c>
+      <c r="G45" t="s">
+        <v>77</v>
+      </c>
+      <c r="H45" t="s">
+        <v>77</v>
+      </c>
+      <c r="I45" t="s">
+        <v>81</v>
+      </c>
+      <c r="J45" t="s">
+        <v>77</v>
+      </c>
+      <c r="K45" t="s">
+        <v>78</v>
+      </c>
+      <c r="O45">
+        <v>5</v>
+      </c>
+      <c r="P45">
+        <v>117</v>
+      </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
+      <c r="B46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46" t="s">
+        <v>77</v>
+      </c>
+      <c r="G46" t="s">
+        <v>77</v>
+      </c>
+      <c r="H46" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" t="s">
+        <v>78</v>
+      </c>
+      <c r="J46" t="s">
+        <v>77</v>
+      </c>
+      <c r="K46" t="s">
+        <v>78</v>
+      </c>
+      <c r="O46">
+        <v>7</v>
+      </c>
+      <c r="P46">
+        <v>617</v>
+      </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -7348,13 +8559,46 @@
       <c r="B71" t="s">
         <v>77</v>
       </c>
+      <c r="C71" t="s">
+        <v>77</v>
+      </c>
+      <c r="D71" t="s">
+        <v>77</v>
+      </c>
+      <c r="E71" t="s">
+        <v>77</v>
+      </c>
+      <c r="F71" t="s">
+        <v>77</v>
+      </c>
+      <c r="G71" t="s">
+        <v>78</v>
+      </c>
+      <c r="H71" t="s">
+        <v>77</v>
+      </c>
+      <c r="I71" t="s">
+        <v>78</v>
+      </c>
+      <c r="J71" t="s">
+        <v>77</v>
+      </c>
+      <c r="K71" t="s">
+        <v>78</v>
+      </c>
+      <c r="O71">
+        <v>7</v>
+      </c>
+      <c r="P71">
+        <v>714</v>
+      </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
@@ -7364,6 +8608,48 @@
       <c r="B73" t="s">
         <v>77</v>
       </c>
+      <c r="C73" t="s">
+        <v>100</v>
+      </c>
+      <c r="D73" t="s">
+        <v>78</v>
+      </c>
+      <c r="E73" t="s">
+        <v>77</v>
+      </c>
+      <c r="F73" t="s">
+        <v>81</v>
+      </c>
+      <c r="G73" t="s">
+        <v>77</v>
+      </c>
+      <c r="H73" t="s">
+        <v>78</v>
+      </c>
+      <c r="I73" t="s">
+        <v>78</v>
+      </c>
+      <c r="J73" t="s">
+        <v>77</v>
+      </c>
+      <c r="K73" t="s">
+        <v>77</v>
+      </c>
+      <c r="L73">
+        <v>334</v>
+      </c>
+      <c r="M73">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="N73">
+        <v>2.16</v>
+      </c>
+      <c r="O73">
+        <v>7</v>
+      </c>
+      <c r="P73">
+        <v>501</v>
+      </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
@@ -7372,13 +8658,55 @@
       <c r="B74" t="s">
         <v>77</v>
       </c>
+      <c r="C74" t="s">
+        <v>80</v>
+      </c>
+      <c r="D74" t="s">
+        <v>94</v>
+      </c>
+      <c r="E74" t="s">
+        <v>81</v>
+      </c>
+      <c r="F74" t="s">
+        <v>81</v>
+      </c>
+      <c r="G74" t="s">
+        <v>77</v>
+      </c>
+      <c r="H74" t="s">
+        <v>78</v>
+      </c>
+      <c r="I74" t="s">
+        <v>81</v>
+      </c>
+      <c r="J74" t="s">
+        <v>77</v>
+      </c>
+      <c r="K74" t="s">
+        <v>77</v>
+      </c>
+      <c r="L74">
+        <v>372</v>
+      </c>
+      <c r="M74">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N74">
+        <v>0.13</v>
+      </c>
+      <c r="O74">
+        <v>7</v>
+      </c>
+      <c r="P74">
+        <v>615</v>
+      </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
@@ -7388,13 +8716,46 @@
       <c r="B76" t="s">
         <v>77</v>
       </c>
+      <c r="C76" t="s">
+        <v>77</v>
+      </c>
+      <c r="D76" t="s">
+        <v>81</v>
+      </c>
+      <c r="E76" t="s">
+        <v>81</v>
+      </c>
+      <c r="F76" t="s">
+        <v>115</v>
+      </c>
+      <c r="G76" t="s">
+        <v>78</v>
+      </c>
+      <c r="H76" t="s">
+        <v>77</v>
+      </c>
+      <c r="I76" t="s">
+        <v>81</v>
+      </c>
+      <c r="J76" t="s">
+        <v>77</v>
+      </c>
+      <c r="K76" t="s">
+        <v>78</v>
+      </c>
+      <c r="O76">
+        <v>7</v>
+      </c>
+      <c r="P76">
+        <v>724</v>
+      </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
@@ -7403,6 +8764,2693 @@
       </c>
       <c r="B78" t="s">
         <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>80</v>
+      </c>
+      <c r="D78" t="s">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>77</v>
+      </c>
+      <c r="F78" t="s">
+        <v>94</v>
+      </c>
+      <c r="G78" t="s">
+        <v>77</v>
+      </c>
+      <c r="H78" t="s">
+        <v>77</v>
+      </c>
+      <c r="I78" t="s">
+        <v>78</v>
+      </c>
+      <c r="J78" t="s">
+        <v>77</v>
+      </c>
+      <c r="K78" t="s">
+        <v>77</v>
+      </c>
+      <c r="L78">
+        <v>655</v>
+      </c>
+      <c r="M78">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N78">
+        <v>0.21</v>
+      </c>
+      <c r="O78">
+        <v>7</v>
+      </c>
+      <c r="P78">
+        <v>603</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N1" t="s">
+        <v>98</v>
+      </c>
+      <c r="O1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2">
+        <v>7</v>
+      </c>
+      <c r="P2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O3">
+        <v>7</v>
+      </c>
+      <c r="P3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O4">
+        <v>7</v>
+      </c>
+      <c r="P4">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5">
+        <v>7</v>
+      </c>
+      <c r="P5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6">
+        <v>367</v>
+      </c>
+      <c r="M6">
+        <v>0.06</v>
+      </c>
+      <c r="N6">
+        <v>0.48</v>
+      </c>
+      <c r="O6">
+        <v>7</v>
+      </c>
+      <c r="P6">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7">
+        <v>7</v>
+      </c>
+      <c r="P7">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8">
+        <v>7</v>
+      </c>
+      <c r="P8">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="P9">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" t="s">
+        <v>78</v>
+      </c>
+      <c r="O10">
+        <v>7</v>
+      </c>
+      <c r="P10">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11">
+        <v>245</v>
+      </c>
+      <c r="M11">
+        <v>0.05</v>
+      </c>
+      <c r="N11">
+        <v>0.59</v>
+      </c>
+      <c r="O11">
+        <v>7</v>
+      </c>
+      <c r="P11">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="O12">
+        <v>7</v>
+      </c>
+      <c r="P12">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" t="s">
+        <v>78</v>
+      </c>
+      <c r="O13">
+        <v>7</v>
+      </c>
+      <c r="P13">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" t="s">
+        <v>78</v>
+      </c>
+      <c r="O14">
+        <v>7</v>
+      </c>
+      <c r="P14">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" t="s">
+        <v>78</v>
+      </c>
+      <c r="O16">
+        <v>7</v>
+      </c>
+      <c r="P16">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="O17">
+        <v>7</v>
+      </c>
+      <c r="P17">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" t="s">
+        <v>78</v>
+      </c>
+      <c r="O18">
+        <v>7</v>
+      </c>
+      <c r="P18">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19" t="s">
+        <v>78</v>
+      </c>
+      <c r="K19" t="s">
+        <v>78</v>
+      </c>
+      <c r="O19">
+        <v>7</v>
+      </c>
+      <c r="P19">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" t="s">
+        <v>78</v>
+      </c>
+      <c r="J20" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" t="s">
+        <v>78</v>
+      </c>
+      <c r="O20">
+        <v>7</v>
+      </c>
+      <c r="P20">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21" t="s">
+        <v>77</v>
+      </c>
+      <c r="K21" t="s">
+        <v>78</v>
+      </c>
+      <c r="O21">
+        <v>7</v>
+      </c>
+      <c r="P21">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" t="s">
+        <v>78</v>
+      </c>
+      <c r="J22" t="s">
+        <v>78</v>
+      </c>
+      <c r="K22" t="s">
+        <v>78</v>
+      </c>
+      <c r="O22">
+        <v>7</v>
+      </c>
+      <c r="P22">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" t="s">
+        <v>78</v>
+      </c>
+      <c r="J23" t="s">
+        <v>78</v>
+      </c>
+      <c r="K23" t="s">
+        <v>77</v>
+      </c>
+      <c r="M23">
+        <v>0.01</v>
+      </c>
+      <c r="N23">
+        <v>0.02</v>
+      </c>
+      <c r="O23">
+        <v>7</v>
+      </c>
+      <c r="P23">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" t="s">
+        <v>78</v>
+      </c>
+      <c r="J24" t="s">
+        <v>77</v>
+      </c>
+      <c r="K24" t="s">
+        <v>77</v>
+      </c>
+      <c r="M24">
+        <v>0.02</v>
+      </c>
+      <c r="N24">
+        <v>0.01</v>
+      </c>
+      <c r="O24">
+        <v>7</v>
+      </c>
+      <c r="P24">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" t="s">
+        <v>78</v>
+      </c>
+      <c r="J25" t="s">
+        <v>77</v>
+      </c>
+      <c r="K25" t="s">
+        <v>78</v>
+      </c>
+      <c r="O25">
+        <v>7</v>
+      </c>
+      <c r="P25">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" t="s">
+        <v>78</v>
+      </c>
+      <c r="I26" t="s">
+        <v>78</v>
+      </c>
+      <c r="J26" t="s">
+        <v>78</v>
+      </c>
+      <c r="K26" t="s">
+        <v>78</v>
+      </c>
+      <c r="O26">
+        <v>7</v>
+      </c>
+      <c r="P26">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27" t="s">
+        <v>81</v>
+      </c>
+      <c r="J27" t="s">
+        <v>78</v>
+      </c>
+      <c r="K27" t="s">
+        <v>78</v>
+      </c>
+      <c r="O27">
+        <v>7</v>
+      </c>
+      <c r="P27">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28" t="s">
+        <v>78</v>
+      </c>
+      <c r="J28" t="s">
+        <v>77</v>
+      </c>
+      <c r="K28" t="s">
+        <v>78</v>
+      </c>
+      <c r="O28">
+        <v>7</v>
+      </c>
+      <c r="P28">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" t="s">
+        <v>78</v>
+      </c>
+      <c r="I29" t="s">
+        <v>78</v>
+      </c>
+      <c r="J29" t="s">
+        <v>77</v>
+      </c>
+      <c r="K29" t="s">
+        <v>78</v>
+      </c>
+      <c r="O29">
+        <v>7</v>
+      </c>
+      <c r="P29">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" t="s">
+        <v>78</v>
+      </c>
+      <c r="I30" t="s">
+        <v>78</v>
+      </c>
+      <c r="J30" t="s">
+        <v>77</v>
+      </c>
+      <c r="K30" t="s">
+        <v>77</v>
+      </c>
+      <c r="L30">
+        <v>728</v>
+      </c>
+      <c r="M30">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="N30">
+        <v>0.01</v>
+      </c>
+      <c r="O30">
+        <v>7</v>
+      </c>
+      <c r="P30">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I31" t="s">
+        <v>81</v>
+      </c>
+      <c r="J31" t="s">
+        <v>78</v>
+      </c>
+      <c r="K31" t="s">
+        <v>77</v>
+      </c>
+      <c r="L31">
+        <v>498</v>
+      </c>
+      <c r="M31">
+        <v>0.02</v>
+      </c>
+      <c r="N31">
+        <v>0.01</v>
+      </c>
+      <c r="O31">
+        <v>7</v>
+      </c>
+      <c r="P31">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" t="s">
+        <v>78</v>
+      </c>
+      <c r="I32" t="s">
+        <v>78</v>
+      </c>
+      <c r="J32" t="s">
+        <v>77</v>
+      </c>
+      <c r="K32" t="s">
+        <v>77</v>
+      </c>
+      <c r="L32">
+        <v>115</v>
+      </c>
+      <c r="M32">
+        <v>1.34</v>
+      </c>
+      <c r="N32">
+        <v>0.33</v>
+      </c>
+      <c r="O32">
+        <v>7</v>
+      </c>
+      <c r="P32">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" t="s">
+        <v>94</v>
+      </c>
+      <c r="G33" t="s">
+        <v>94</v>
+      </c>
+      <c r="H33" t="s">
+        <v>81</v>
+      </c>
+      <c r="I33" t="s">
+        <v>94</v>
+      </c>
+      <c r="J33" t="s">
+        <v>80</v>
+      </c>
+      <c r="O33">
+        <v>7</v>
+      </c>
+      <c r="P33">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34" t="s">
+        <v>81</v>
+      </c>
+      <c r="I34" t="s">
+        <v>78</v>
+      </c>
+      <c r="J34" t="s">
+        <v>78</v>
+      </c>
+      <c r="K34" t="s">
+        <v>77</v>
+      </c>
+      <c r="L34">
+        <v>50</v>
+      </c>
+      <c r="M34">
+        <v>2.58</v>
+      </c>
+      <c r="N34">
+        <v>4.46</v>
+      </c>
+      <c r="O34">
+        <v>7</v>
+      </c>
+      <c r="P34">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35" t="s">
+        <v>77</v>
+      </c>
+      <c r="H35" t="s">
+        <v>81</v>
+      </c>
+      <c r="I35" t="s">
+        <v>78</v>
+      </c>
+      <c r="J35" t="s">
+        <v>78</v>
+      </c>
+      <c r="K35" t="s">
+        <v>78</v>
+      </c>
+      <c r="O35">
+        <v>7</v>
+      </c>
+      <c r="P35">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" t="s">
+        <v>77</v>
+      </c>
+      <c r="H36" t="s">
+        <v>78</v>
+      </c>
+      <c r="I36" t="s">
+        <v>81</v>
+      </c>
+      <c r="J36" t="s">
+        <v>77</v>
+      </c>
+      <c r="K36" t="s">
+        <v>78</v>
+      </c>
+      <c r="O36">
+        <v>7</v>
+      </c>
+      <c r="P36">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" t="s">
+        <v>78</v>
+      </c>
+      <c r="H37" t="s">
+        <v>77</v>
+      </c>
+      <c r="I37" t="s">
+        <v>78</v>
+      </c>
+      <c r="J37" t="s">
+        <v>78</v>
+      </c>
+      <c r="K37" t="s">
+        <v>77</v>
+      </c>
+      <c r="L37">
+        <v>45</v>
+      </c>
+      <c r="M37">
+        <v>0.12</v>
+      </c>
+      <c r="N37">
+        <v>0.2</v>
+      </c>
+      <c r="O37">
+        <v>7</v>
+      </c>
+      <c r="P37">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" t="s">
+        <v>94</v>
+      </c>
+      <c r="G38" t="s">
+        <v>77</v>
+      </c>
+      <c r="H38" t="s">
+        <v>77</v>
+      </c>
+      <c r="I38" t="s">
+        <v>81</v>
+      </c>
+      <c r="J38" t="s">
+        <v>77</v>
+      </c>
+      <c r="K38" t="s">
+        <v>78</v>
+      </c>
+      <c r="O38">
+        <v>7</v>
+      </c>
+      <c r="P38">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" t="s">
+        <v>77</v>
+      </c>
+      <c r="F39" t="s">
+        <v>81</v>
+      </c>
+      <c r="G39" t="s">
+        <v>77</v>
+      </c>
+      <c r="H39" t="s">
+        <v>78</v>
+      </c>
+      <c r="I39" t="s">
+        <v>81</v>
+      </c>
+      <c r="J39" t="s">
+        <v>77</v>
+      </c>
+      <c r="K39" t="s">
+        <v>77</v>
+      </c>
+      <c r="L39">
+        <v>1108</v>
+      </c>
+      <c r="M39">
+        <v>0.02</v>
+      </c>
+      <c r="N39">
+        <v>0.02</v>
+      </c>
+      <c r="O39">
+        <v>7</v>
+      </c>
+      <c r="P39">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40" t="s">
+        <v>77</v>
+      </c>
+      <c r="H40" t="s">
+        <v>77</v>
+      </c>
+      <c r="I40" t="s">
+        <v>81</v>
+      </c>
+      <c r="J40" t="s">
+        <v>77</v>
+      </c>
+      <c r="K40" t="s">
+        <v>77</v>
+      </c>
+      <c r="L40">
+        <v>803</v>
+      </c>
+      <c r="M40">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N40">
+        <v>0.09</v>
+      </c>
+      <c r="O40">
+        <v>7</v>
+      </c>
+      <c r="P40">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" t="s">
+        <v>77</v>
+      </c>
+      <c r="G41" t="s">
+        <v>78</v>
+      </c>
+      <c r="H41" t="s">
+        <v>77</v>
+      </c>
+      <c r="I41" t="s">
+        <v>78</v>
+      </c>
+      <c r="J41" t="s">
+        <v>77</v>
+      </c>
+      <c r="K41" t="s">
+        <v>78</v>
+      </c>
+      <c r="O41">
+        <v>7</v>
+      </c>
+      <c r="P41">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" t="s">
+        <v>77</v>
+      </c>
+      <c r="G42" t="s">
+        <v>78</v>
+      </c>
+      <c r="H42" t="s">
+        <v>77</v>
+      </c>
+      <c r="I42" t="s">
+        <v>78</v>
+      </c>
+      <c r="J42" t="s">
+        <v>77</v>
+      </c>
+      <c r="K42" t="s">
+        <v>78</v>
+      </c>
+      <c r="O42">
+        <v>7</v>
+      </c>
+      <c r="P42">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43" t="s">
+        <v>81</v>
+      </c>
+      <c r="G43" t="s">
+        <v>77</v>
+      </c>
+      <c r="H43" t="s">
+        <v>78</v>
+      </c>
+      <c r="I43" t="s">
+        <v>78</v>
+      </c>
+      <c r="J43" t="s">
+        <v>77</v>
+      </c>
+      <c r="K43" t="s">
+        <v>77</v>
+      </c>
+      <c r="L43">
+        <v>334</v>
+      </c>
+      <c r="M43">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="N43">
+        <v>2.16</v>
+      </c>
+      <c r="O43">
+        <v>7</v>
+      </c>
+      <c r="P43">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" t="s">
+        <v>81</v>
+      </c>
+      <c r="G44" t="s">
+        <v>77</v>
+      </c>
+      <c r="H44" t="s">
+        <v>78</v>
+      </c>
+      <c r="I44" t="s">
+        <v>81</v>
+      </c>
+      <c r="J44" t="s">
+        <v>77</v>
+      </c>
+      <c r="K44" t="s">
+        <v>77</v>
+      </c>
+      <c r="L44">
+        <v>372</v>
+      </c>
+      <c r="M44">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N44">
+        <v>0.13</v>
+      </c>
+      <c r="O44">
+        <v>7</v>
+      </c>
+      <c r="P44">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45" t="s">
+        <v>115</v>
+      </c>
+      <c r="G45" t="s">
+        <v>78</v>
+      </c>
+      <c r="H45" t="s">
+        <v>77</v>
+      </c>
+      <c r="I45" t="s">
+        <v>81</v>
+      </c>
+      <c r="J45" t="s">
+        <v>77</v>
+      </c>
+      <c r="K45" t="s">
+        <v>78</v>
+      </c>
+      <c r="O45">
+        <v>7</v>
+      </c>
+      <c r="P45">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46" t="s">
+        <v>94</v>
+      </c>
+      <c r="G46" t="s">
+        <v>77</v>
+      </c>
+      <c r="H46" t="s">
+        <v>77</v>
+      </c>
+      <c r="I46" t="s">
+        <v>78</v>
+      </c>
+      <c r="J46" t="s">
+        <v>77</v>
+      </c>
+      <c r="K46" t="s">
+        <v>77</v>
+      </c>
+      <c r="L46">
+        <v>655</v>
+      </c>
+      <c r="M46">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N46">
+        <v>0.21</v>
+      </c>
+      <c r="O46">
+        <v>7</v>
+      </c>
+      <c r="P46">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" t="s">
+        <v>78</v>
+      </c>
+      <c r="G47" t="s">
+        <v>77</v>
+      </c>
+      <c r="H47" t="s">
+        <v>77</v>
+      </c>
+      <c r="I47" t="s">
+        <v>81</v>
+      </c>
+      <c r="J47" t="s">
+        <v>78</v>
+      </c>
+      <c r="K47" t="s">
+        <v>78</v>
+      </c>
+      <c r="O47">
+        <v>5</v>
+      </c>
+      <c r="P47">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" t="s">
+        <v>81</v>
+      </c>
+      <c r="F48" t="s">
+        <v>81</v>
+      </c>
+      <c r="G48" t="s">
+        <v>77</v>
+      </c>
+      <c r="H48" t="s">
+        <v>77</v>
+      </c>
+      <c r="I48" t="s">
+        <v>81</v>
+      </c>
+      <c r="J48" t="s">
+        <v>78</v>
+      </c>
+      <c r="K48" t="s">
+        <v>78</v>
+      </c>
+      <c r="O48">
+        <v>5</v>
+      </c>
+      <c r="P48">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" t="s">
+        <v>78</v>
+      </c>
+      <c r="E49" t="s">
+        <v>81</v>
+      </c>
+      <c r="F49" t="s">
+        <v>81</v>
+      </c>
+      <c r="G49" t="s">
+        <v>77</v>
+      </c>
+      <c r="H49" t="s">
+        <v>77</v>
+      </c>
+      <c r="I49" t="s">
+        <v>81</v>
+      </c>
+      <c r="J49" t="s">
+        <v>77</v>
+      </c>
+      <c r="K49" t="s">
+        <v>78</v>
+      </c>
+      <c r="O49">
+        <v>5</v>
+      </c>
+      <c r="P49">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50" t="s">
+        <v>81</v>
+      </c>
+      <c r="F50" t="s">
+        <v>81</v>
+      </c>
+      <c r="G50" t="s">
+        <v>78</v>
+      </c>
+      <c r="H50" t="s">
+        <v>77</v>
+      </c>
+      <c r="I50" t="s">
+        <v>81</v>
+      </c>
+      <c r="J50" t="s">
+        <v>78</v>
+      </c>
+      <c r="K50" t="s">
+        <v>78</v>
+      </c>
+      <c r="O50">
+        <v>5</v>
+      </c>
+      <c r="P50">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F51" t="s">
+        <v>81</v>
+      </c>
+      <c r="G51" t="s">
+        <v>77</v>
+      </c>
+      <c r="H51" t="s">
+        <v>77</v>
+      </c>
+      <c r="I51" t="s">
+        <v>81</v>
+      </c>
+      <c r="J51" t="s">
+        <v>77</v>
+      </c>
+      <c r="K51" t="s">
+        <v>78</v>
+      </c>
+      <c r="O51">
+        <v>5</v>
+      </c>
+      <c r="P51">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" t="s">
+        <v>81</v>
+      </c>
+      <c r="F52" t="s">
+        <v>81</v>
+      </c>
+      <c r="G52" t="s">
+        <v>77</v>
+      </c>
+      <c r="H52" t="s">
+        <v>77</v>
+      </c>
+      <c r="I52" t="s">
+        <v>81</v>
+      </c>
+      <c r="J52" t="s">
+        <v>77</v>
+      </c>
+      <c r="K52" t="s">
+        <v>78</v>
+      </c>
+      <c r="O52">
+        <v>5</v>
+      </c>
+      <c r="P52">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" t="s">
+        <v>94</v>
+      </c>
+      <c r="E53" t="s">
+        <v>81</v>
+      </c>
+      <c r="F53" t="s">
+        <v>81</v>
+      </c>
+      <c r="G53" t="s">
+        <v>77</v>
+      </c>
+      <c r="H53" t="s">
+        <v>77</v>
+      </c>
+      <c r="I53" t="s">
+        <v>81</v>
+      </c>
+      <c r="J53" t="s">
+        <v>77</v>
+      </c>
+      <c r="K53" t="s">
+        <v>78</v>
+      </c>
+      <c r="O53">
+        <v>5</v>
+      </c>
+      <c r="P53">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" t="s">
+        <v>81</v>
+      </c>
+      <c r="F54" t="s">
+        <v>81</v>
+      </c>
+      <c r="G54" t="s">
+        <v>77</v>
+      </c>
+      <c r="H54" t="s">
+        <v>77</v>
+      </c>
+      <c r="I54" t="s">
+        <v>81</v>
+      </c>
+      <c r="J54" t="s">
+        <v>77</v>
+      </c>
+      <c r="K54" t="s">
+        <v>78</v>
+      </c>
+      <c r="O54">
+        <v>5</v>
+      </c>
+      <c r="P54">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" t="s">
+        <v>94</v>
+      </c>
+      <c r="E55" t="s">
+        <v>81</v>
+      </c>
+      <c r="F55" t="s">
+        <v>81</v>
+      </c>
+      <c r="G55" t="s">
+        <v>77</v>
+      </c>
+      <c r="H55" t="s">
+        <v>77</v>
+      </c>
+      <c r="I55" t="s">
+        <v>78</v>
+      </c>
+      <c r="J55" t="s">
+        <v>77</v>
+      </c>
+      <c r="K55" t="s">
+        <v>78</v>
+      </c>
+      <c r="O55">
+        <v>5</v>
+      </c>
+      <c r="P55">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" t="s">
+        <v>81</v>
+      </c>
+      <c r="E56" t="s">
+        <v>81</v>
+      </c>
+      <c r="F56" t="s">
+        <v>94</v>
+      </c>
+      <c r="G56" t="s">
+        <v>94</v>
+      </c>
+      <c r="H56" t="s">
+        <v>81</v>
+      </c>
+      <c r="I56" t="s">
+        <v>94</v>
+      </c>
+      <c r="J56" t="s">
+        <v>80</v>
+      </c>
+      <c r="K56" t="s">
+        <v>78</v>
+      </c>
+      <c r="O56">
+        <v>5</v>
+      </c>
+      <c r="P56">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" t="s">
+        <v>94</v>
+      </c>
+      <c r="E57" t="s">
+        <v>81</v>
+      </c>
+      <c r="F57" t="s">
+        <v>78</v>
+      </c>
+      <c r="G57" t="s">
+        <v>77</v>
+      </c>
+      <c r="H57" t="s">
+        <v>77</v>
+      </c>
+      <c r="I57" t="s">
+        <v>81</v>
+      </c>
+      <c r="J57" t="s">
+        <v>77</v>
+      </c>
+      <c r="K57" t="s">
+        <v>78</v>
+      </c>
+      <c r="O57">
+        <v>5</v>
+      </c>
+      <c r="P57">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" t="s">
+        <v>79</v>
+      </c>
+      <c r="E58" t="s">
+        <v>81</v>
+      </c>
+      <c r="F58" t="s">
+        <v>94</v>
+      </c>
+      <c r="G58" t="s">
+        <v>77</v>
+      </c>
+      <c r="H58" t="s">
+        <v>77</v>
+      </c>
+      <c r="I58" t="s">
+        <v>81</v>
+      </c>
+      <c r="J58" t="s">
+        <v>77</v>
+      </c>
+      <c r="K58" t="s">
+        <v>78</v>
+      </c>
+      <c r="O58">
+        <v>5</v>
+      </c>
+      <c r="P58">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E59" t="s">
+        <v>78</v>
+      </c>
+      <c r="F59" t="s">
+        <v>78</v>
+      </c>
+      <c r="G59" t="s">
+        <v>77</v>
+      </c>
+      <c r="H59" t="s">
+        <v>77</v>
+      </c>
+      <c r="I59" t="s">
+        <v>78</v>
+      </c>
+      <c r="J59" t="s">
+        <v>77</v>
+      </c>
+      <c r="K59" t="s">
+        <v>78</v>
+      </c>
+      <c r="O59">
+        <v>5</v>
+      </c>
+      <c r="P59">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" t="s">
+        <v>81</v>
+      </c>
+      <c r="E60" t="s">
+        <v>78</v>
+      </c>
+      <c r="F60" t="s">
+        <v>78</v>
+      </c>
+      <c r="G60" t="s">
+        <v>77</v>
+      </c>
+      <c r="H60" t="s">
+        <v>77</v>
+      </c>
+      <c r="I60" t="s">
+        <v>78</v>
+      </c>
+      <c r="J60" t="s">
+        <v>78</v>
+      </c>
+      <c r="K60" t="s">
+        <v>77</v>
+      </c>
+      <c r="L60">
+        <v>122</v>
+      </c>
+      <c r="M60">
+        <v>3.34</v>
+      </c>
+      <c r="N60">
+        <v>3.39</v>
+      </c>
+      <c r="O60">
+        <v>5</v>
+      </c>
+      <c r="P60">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>63</v>
+      </c>
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" t="s">
+        <v>77</v>
+      </c>
+      <c r="E75" t="s">
+        <v>77</v>
+      </c>
+      <c r="F75" t="s">
+        <v>94</v>
+      </c>
+      <c r="G75" t="s">
+        <v>77</v>
+      </c>
+      <c r="H75" t="s">
+        <v>80</v>
+      </c>
+      <c r="I75" t="s">
+        <v>81</v>
+      </c>
+      <c r="J75" t="s">
+        <v>77</v>
+      </c>
+      <c r="K75" t="s">
+        <v>77</v>
+      </c>
+      <c r="L75">
+        <v>914</v>
+      </c>
+      <c r="M75">
+        <v>0.11</v>
+      </c>
+      <c r="N75">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>70</v>
+      </c>
+      <c r="B76" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>73</v>
+      </c>
+      <c r="B77" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
